--- a/Ergebnisse_Teil_1/Study_15_10_2025_LHS_Modell_1.2_KS_Holdout_seed_999/metrics/Trial_408__Reeval_LHS_Modell_1.2.xlsx
+++ b/Ergebnisse_Teil_1/Study_15_10_2025_LHS_Modell_1.2_KS_Holdout_seed_999/metrics/Trial_408__Reeval_LHS_Modell_1.2.xlsx
@@ -5876,7 +5876,7 @@
                   <c:v>51.91476821899414</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>48.429443359375</c:v>
+                  <c:v>48.42943954467773</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>58.30675506591797</c:v>
@@ -5885,7 +5885,7 @@
                   <c:v>63.00443649291992</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>41.92297744750977</c:v>
+                  <c:v>41.92298126220703</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>54.20953750610352</c:v>
@@ -5921,16 +5921,16 @@
                   <c:v>41.55152893066406</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>46.68219375610352</c:v>
+                  <c:v>46.68218994140625</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>41.68213272094727</c:v>
+                  <c:v>41.68212890625</c:v>
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>57.90538787841797</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>43.03708267211914</c:v>
+                  <c:v>43.03707885742188</c:v>
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>38.72531509399414</c:v>
@@ -5942,13 +5942,13 @@
                   <c:v>58.84167098999023</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>35.35652542114258</c:v>
+                  <c:v>35.35651779174805</c:v>
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>53.9118766784668</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>60.00284194946289</c:v>
+                  <c:v>60.00284957885742</c:v>
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>47.59366607666016</c:v>
@@ -5966,13 +5966,13 @@
                   <c:v>42.18393707275391</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>54.41838073730469</c:v>
+                  <c:v>54.41837310791016</c:v>
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>49.37800216674805</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>49.09297943115234</c:v>
+                  <c:v>49.09297561645508</c:v>
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>48.5415153503418</c:v>
@@ -5996,16 +5996,16 @@
                   <c:v>42.17146301269531</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>49.84169769287109</c:v>
+                  <c:v>49.84169387817383</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>66.67698669433594</c:v>
+                  <c:v>66.67699432373047</c:v>
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>44.59052276611328</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>45.56711959838867</c:v>
+                  <c:v>45.56711578369141</c:v>
                 </c:pt>
                 <c:pt idx="45">
                   <c:v>54.57346343994141</c:v>
@@ -6032,10 +6032,10 @@
                   <c:v>52.2682991027832</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>52.49569702148438</c:v>
+                  <c:v>52.49569320678711</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>44.04790115356445</c:v>
+                  <c:v>44.04790496826172</c:v>
                 </c:pt>
                 <c:pt idx="55">
                   <c:v>48.54074096679688</c:v>
@@ -6080,10 +6080,10 @@
                   <c:v>51.61362457275391</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>49.17876434326172</c:v>
+                  <c:v>49.17876052856445</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>45.28882217407227</c:v>
+                  <c:v>45.288818359375</c:v>
                 </c:pt>
                 <c:pt idx="71">
                   <c:v>44.03910446166992</c:v>
@@ -6125,7 +6125,7 @@
                   <c:v>44.82039642333984</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>43.53495025634766</c:v>
+                  <c:v>43.53495407104492</c:v>
                 </c:pt>
                 <c:pt idx="85">
                   <c:v>68.99128723144531</c:v>
@@ -6137,7 +6137,7 @@
                   <c:v>38.8859748840332</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>43.61070251464844</c:v>
+                  <c:v>43.61069869995117</c:v>
                 </c:pt>
                 <c:pt idx="89">
                   <c:v>55.73068618774414</c:v>
@@ -6891,7 +6891,7 @@
         <v>81.04689999999999</v>
       </c>
       <c r="F3">
-        <v>48.429443359375</v>
+        <v>48.42943954467773</v>
       </c>
       <c r="G3">
         <v>99</v>
@@ -6987,7 +6987,7 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>41.92297744750977</v>
+        <v>41.92298126220703</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -7251,7 +7251,7 @@
         <v>79.6208</v>
       </c>
       <c r="F18">
-        <v>46.68219375610352</v>
+        <v>46.68218994140625</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -7271,7 +7271,7 @@
         <v>53.0182</v>
       </c>
       <c r="F19">
-        <v>41.68213272094727</v>
+        <v>41.68212890625</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -7311,7 +7311,7 @@
         <v>0</v>
       </c>
       <c r="F21">
-        <v>43.03708267211914</v>
+        <v>43.03707885742188</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -7391,7 +7391,7 @@
         <v>92.7298</v>
       </c>
       <c r="F25">
-        <v>35.35652542114258</v>
+        <v>35.35651779174805</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -7431,7 +7431,7 @@
         <v>97.9389</v>
       </c>
       <c r="F27">
-        <v>60.00284194946289</v>
+        <v>60.00284957885742</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -7551,7 +7551,7 @@
         <v>91.72880000000001</v>
       </c>
       <c r="F33">
-        <v>54.41838073730469</v>
+        <v>54.41837310791016</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -7591,7 +7591,7 @@
         <v>93.7411</v>
       </c>
       <c r="F35">
-        <v>49.09297943115234</v>
+        <v>49.09297561645508</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -7751,7 +7751,7 @@
         <v>88.684</v>
       </c>
       <c r="F43">
-        <v>49.84169769287109</v>
+        <v>49.84169387817383</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -7771,7 +7771,7 @@
         <v>92.8233</v>
       </c>
       <c r="F44">
-        <v>66.67698669433594</v>
+        <v>66.67699432373047</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -7811,7 +7811,7 @@
         <v>96.6305</v>
       </c>
       <c r="F46">
-        <v>45.56711959838867</v>
+        <v>45.56711578369141</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -7991,7 +7991,7 @@
         <v>92.267</v>
       </c>
       <c r="F55">
-        <v>52.49569702148438</v>
+        <v>52.49569320678711</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -8011,7 +8011,7 @@
         <v>63.5626</v>
       </c>
       <c r="F56">
-        <v>44.04790115356445</v>
+        <v>44.04790496826172</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -8311,7 +8311,7 @@
         <v>94.41</v>
       </c>
       <c r="F71">
-        <v>49.17876434326172</v>
+        <v>49.17876052856445</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -8331,7 +8331,7 @@
         <v>0</v>
       </c>
       <c r="F72">
-        <v>45.28882217407227</v>
+        <v>45.288818359375</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -8611,7 +8611,7 @@
         <v>0</v>
       </c>
       <c r="F86">
-        <v>43.53495025634766</v>
+        <v>43.53495407104492</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -8691,7 +8691,7 @@
         <v>0</v>
       </c>
       <c r="F90">
-        <v>43.61070251464844</v>
+        <v>43.61069869995117</v>
       </c>
     </row>
     <row r="91" spans="1:6">
